--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaTaiSanTths.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaTaiSanTths.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\excel csdlgia\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4961B95-47C2-4F3F-8E9C-15AB7574F86B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FA40AB-C67D-486B-9A37-BD7DC5BC2AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11310" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>Phân loại</t>
   </si>
@@ -58,32 +58,43 @@
   </si>
   <si>
     <t>Nhà 1 tầng, tường 200</t>
+  </si>
+  <si>
+    <t>GIÁ TÀI SẢN TỐ TỤNG HÌNH SỰ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F4254"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="163"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -95,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -103,22 +114,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,143 +474,160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0BC2B6-4560-4170-B0EA-9A729F87B874}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="38.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.625" customWidth="1"/>
+    <col min="4" max="4" width="25.75" customWidth="1"/>
+    <col min="5" max="5" width="38.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.25" customWidth="1"/>
+    <col min="7" max="7" width="19.125" customWidth="1"/>
+    <col min="8" max="8" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
         <v>231130563414</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E3" s="9">
         <v>5000000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
         <v>231130563414</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E4" s="9">
         <v>6000000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
         <v>231130224114</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E5" s="9">
         <v>6000000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
         <v>231130224114</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E6" s="9">
         <v>7000000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
         <v>231130224114</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E7" s="9">
         <v>5000000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi định dạng giá trị" error="Giá trị vừa nhập có định dạng không hợp lệ" sqref="E3:E1048576" xr:uid="{1C773218-0E5C-4B66-8876-A0C2B3B7547D}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
